--- a/Python Tutorial.xlsx
+++ b/Python Tutorial.xlsx
@@ -38,6 +38,24 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E3">
+      <text>
+        <t xml:space="preserve">Ordered
+Immutable
+Multiple Duplicate Values</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E4">
+      <text>
+        <t xml:space="preserve">Empty tuple
+Single item tuple
+homogeneous tuple
+heterogeneous tuple
+2d tuple
+tuple type conversion
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">positive indexing
@@ -58,6 +76,12 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E5">
+      <text>
+        <t xml:space="preserve">indexing
+slicing</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C6">
       <text>
         <t xml:space="preserve">indexing using step size
@@ -110,10 +134,28 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E8">
+      <text>
+        <t xml:space="preserve">Arithmetic
+Membership 
+Loop
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D9">
       <text>
         <t xml:space="preserve">with indexing
 with slicing
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E9">
+      <text>
+        <t xml:space="preserve">sum
+len
+max
+min 
+sorted
 </t>
       </text>
     </comment>
@@ -132,6 +174,13 @@
 remove
 pop
 clear</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E10">
+      <text>
+        <t xml:space="preserve">count
+index
+</t>
       </text>
     </comment>
     <comment authorId="0" ref="C11">
@@ -151,13 +200,32 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E11">
+      <text>
+        <t xml:space="preserve">Syntax
+Mutability
+Speed
+Memory
+Built in functionality
+Error Prone
+Usability
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D12">
       <text>
-        <t xml:space="preserve">len
+        <t xml:space="preserve">sum
+len
 max
 min 
 sorted
 </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E12">
+      <text>
+        <t xml:space="preserve">a, b, *others = (1,2,3,4)
+a, b = b, a</t>
       </text>
     </comment>
     <comment authorId="0" ref="D13">
@@ -173,6 +241,11 @@
     <comment authorId="0" ref="D14">
       <text>
         <t xml:space="preserve">[expression for item in iterable if condition == True]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E14">
+      <text>
+        <t xml:space="preserve">Every set items are unique and they are immutable, however sets are mutable</t>
       </text>
     </comment>
     <comment authorId="0" ref="D15">
@@ -186,10 +259,77 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E15">
+      <text>
+        <t xml:space="preserve">Unordered
+Mutable
+No Duplicate Values
+Can't contain mutable datatype</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E16">
+      <text>
+        <t xml:space="preserve">Empty set
+1d Set
+2d Set
+homogeneous set
+heterogeneous set
+set type conversion
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">itemwise
 indexwise</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E19">
+      <text>
+        <t xml:space="preserve">add 
+update</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E20">
+      <text>
+        <t xml:space="preserve">del
+discard
+remove
+pop
+clear
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E21">
+      <text>
+        <t xml:space="preserve">Union (|)
+Interaction (&amp;)
+Difference (-)
+Symmetric Difference (^)
+Membership test
+Iteration
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E22">
+      <text>
+        <t xml:space="preserve">sum
+len
+max
+min 
+sorted
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E23">
+      <text>
+        <t xml:space="preserve">Union/update
+Interaction / Interaction update
+Difference / Difference update
+Symmetric Difference /Symmetric Difference update
+Membership test
+Iteration
+</t>
       </text>
     </comment>
   </commentList>
@@ -197,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>Day - 1 (Basics)</t>
   </si>
@@ -211,6 +351,9 @@
     <t>Day - 4 (Lists)</t>
   </si>
   <si>
+    <t>Day - 5 (Tuples, Sets, Dict)</t>
+  </si>
+  <si>
     <t>Why Python?</t>
   </si>
   <si>
@@ -223,6 +366,9 @@
     <t>What are Lists?</t>
   </si>
   <si>
+    <t>What are Tuples?</t>
+  </si>
+  <si>
     <t>Python o/p - Print Function/ Error</t>
   </si>
   <si>
@@ -235,6 +381,9 @@
     <t>Lists vs Arrays</t>
   </si>
   <si>
+    <t>Characteristics of Tuple</t>
+  </si>
+  <si>
     <t>Data Types including complex numbers</t>
   </si>
   <si>
@@ -247,6 +396,9 @@
     <t>Address of Arrays/List in Memory</t>
   </si>
   <si>
+    <t>Creating Tuples</t>
+  </si>
+  <si>
     <t>Type function</t>
   </si>
   <si>
@@ -259,6 +411,9 @@
     <t>Characteristics of a list</t>
   </si>
   <si>
+    <t>Accessing items in tuple</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -271,6 +426,9 @@
     <t>Creating a list</t>
   </si>
   <si>
+    <t>Editing/Adding items to Tuple</t>
+  </si>
+  <si>
     <t>Static vs Dynamic Typing</t>
   </si>
   <si>
@@ -283,6 +441,9 @@
     <t>Accessing items in the list/ 2d list</t>
   </si>
   <si>
+    <t>Deleting Tuple</t>
+  </si>
+  <si>
     <t>Static vs Dynamic Binding</t>
   </si>
   <si>
@@ -295,6 +456,9 @@
     <t>Adding items to the list</t>
   </si>
   <si>
+    <t>Operations on the Tuples</t>
+  </si>
+  <si>
     <t>`</t>
   </si>
   <si>
@@ -310,18 +474,21 @@
     <t>Editing items in the list</t>
   </si>
   <si>
+    <t xml:space="preserve">common functions </t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Need for loops in Python</t>
   </si>
   <si>
-    <t xml:space="preserve">common functions </t>
-  </si>
-  <si>
     <t>Deleting items from the list</t>
   </si>
   <si>
+    <t>Tuple functions</t>
+  </si>
+  <si>
     <t>Compiler/Interpretator</t>
   </si>
   <si>
@@ -334,6 +501,9 @@
     <t>Operations on the list</t>
   </si>
   <si>
+    <t>Difference between List/Tuple</t>
+  </si>
+  <si>
     <t>Python Keywords/Identifiers</t>
   </si>
   <si>
@@ -343,6 +513,9 @@
     <t>count/find/index</t>
   </si>
   <si>
+    <t>Tuple Unpacking</t>
+  </si>
+  <si>
     <t>Rules of naming identifiers</t>
   </si>
   <si>
@@ -355,6 +528,9 @@
     <t>List functions</t>
   </si>
   <si>
+    <t>Zip</t>
+  </si>
+  <si>
     <t>User Input</t>
   </si>
   <si>
@@ -367,6 +543,9 @@
     <t>List comprehension</t>
   </si>
   <si>
+    <t>Sets</t>
+  </si>
+  <si>
     <t>Addition of two numbers</t>
   </si>
   <si>
@@ -379,6 +558,9 @@
     <t>Problems</t>
   </si>
   <si>
+    <t>Characteristics of Sets</t>
+  </si>
+  <si>
     <t>Type Conversion - Implicit/ Explicit</t>
   </si>
   <si>
@@ -391,6 +573,9 @@
     <t xml:space="preserve">Print a (3,3) matrix using list comprehension </t>
   </si>
   <si>
+    <t>Creating Sets</t>
+  </si>
+  <si>
     <t>Literal</t>
   </si>
   <si>
@@ -403,6 +588,9 @@
     <t>List comprehension of two lists</t>
   </si>
   <si>
+    <t>Accessing items in Sets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Binary Literal - 0b1001 </t>
   </si>
   <si>
@@ -415,6 +603,9 @@
     <t>Ways to use loops on list</t>
   </si>
   <si>
+    <t>Editing items in Sets</t>
+  </si>
+  <si>
     <t>Decimal Literal</t>
   </si>
   <si>
@@ -427,18 +618,27 @@
     <t>zip</t>
   </si>
   <si>
+    <t>Adding items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Octal Literal - 0o123  </t>
   </si>
   <si>
     <t>Print 1234321 pattern</t>
   </si>
   <si>
+    <t>Deleting items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hexadecimal Literal - 0xABC_DEF </t>
   </si>
   <si>
     <t>loop control statement</t>
   </si>
   <si>
+    <t>Set Operations</t>
+  </si>
+  <si>
     <t>Float literal/exponential literal</t>
   </si>
   <si>
@@ -449,6 +649,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Set functions</t>
   </si>
   <si>
     <t>None</t>
@@ -496,30 +699,242 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="Sheet1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -529,6 +944,19 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E25" displayName="Python_Contents" name="Python_Contents" id="1">
+  <tableColumns count="5">
+    <tableColumn name="Day - 1 (Basics)" id="1"/>
+    <tableColumn name="Day - 2 (Basics)" id="2"/>
+    <tableColumn name="Day - 3 (Strings)" id="3"/>
+    <tableColumn name="Day - 4 (Lists)" id="4"/>
+    <tableColumn name="Day - 5 (Tuples, Sets, Dict)" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,333 +1159,409 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.38"/>
-    <col customWidth="1" min="2" max="2" width="29.38"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
-    <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="1" max="1" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="37.63"/>
+    <col customWidth="1" min="3" max="3" width="26.88"/>
+    <col customWidth="1" min="4" max="4" width="35.38"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
+      <c r="A15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
+      <c r="A18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
+      <c r="A19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
+      <c r="A20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
+      <c r="A23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
+      <c r="A24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
+      <c r="A25" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Python Tutorial.xlsx
+++ b/Python Tutorial.xlsx
@@ -38,6 +38,24 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E3">
+      <text>
+        <t xml:space="preserve">Ordered
+Immutable
+Multiple Duplicate Values</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E4">
+      <text>
+        <t xml:space="preserve">Empty tuple
+Single item tuple
+homogeneous tuple
+heterogeneous tuple
+2d tuple
+tuple type conversion
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">positive indexing
@@ -58,6 +76,12 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E5">
+      <text>
+        <t xml:space="preserve">indexing
+slicing</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C6">
       <text>
         <t xml:space="preserve">indexing using step size
@@ -110,10 +134,28 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E8">
+      <text>
+        <t xml:space="preserve">Arithmetic
+Membership 
+Loop
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D9">
       <text>
         <t xml:space="preserve">with indexing
 with slicing
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E9">
+      <text>
+        <t xml:space="preserve">sum
+len
+max
+min 
+sorted
 </t>
       </text>
     </comment>
@@ -132,6 +174,13 @@
 remove
 pop
 clear</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E10">
+      <text>
+        <t xml:space="preserve">count
+index
+</t>
       </text>
     </comment>
     <comment authorId="0" ref="C11">
@@ -151,13 +200,32 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E11">
+      <text>
+        <t xml:space="preserve">Syntax
+Mutability
+Speed
+Memory
+Built in functionality
+Error Prone
+Usability
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D12">
       <text>
-        <t xml:space="preserve">len
+        <t xml:space="preserve">sum
+len
 max
 min 
 sorted
 </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E12">
+      <text>
+        <t xml:space="preserve">a, b, *others = (1,2,3,4)
+a, b = b, a</t>
       </text>
     </comment>
     <comment authorId="0" ref="D13">
@@ -173,6 +241,11 @@
     <comment authorId="0" ref="D14">
       <text>
         <t xml:space="preserve">[expression for item in iterable if condition == True]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E14">
+      <text>
+        <t xml:space="preserve">Every set items are unique and they are immutable, however sets are mutable</t>
       </text>
     </comment>
     <comment authorId="0" ref="D15">
@@ -186,10 +259,90 @@
 </t>
       </text>
     </comment>
+    <comment authorId="0" ref="E15">
+      <text>
+        <t xml:space="preserve">Unordered
+Mutable
+No Duplicate Values
+Can't contain mutable datatype</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E16">
+      <text>
+        <t xml:space="preserve">Empty set
+1d Set
+2d Set
+homogeneous set
+heterogeneous set
+set type conversion
+</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">itemwise
 indexwise</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E19">
+      <text>
+        <t xml:space="preserve">add 
+update</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E20">
+      <text>
+        <t xml:space="preserve">del
+discard
+remove
+pop
+clear
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E21">
+      <text>
+        <t xml:space="preserve">Union (|)
+Interaction (&amp;)
+Difference (-)
+Symmetric Difference (^)
+Membership test
+Iteration
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E22">
+      <text>
+        <t xml:space="preserve">sum
+len
+max
+min 
+sorted
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E23">
+      <text>
+        <t xml:space="preserve">Union/update
+Interaction / Interaction update
+Difference / Difference update
+Symmetric Difference /Symmetric Difference update
+Membership test
+Iteration
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E26">
+      <text>
+        <t xml:space="preserve">create frozenset
+create 2d frozenset</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E27">
+      <text>
+        <t xml:space="preserve">What works -&gt; Read o/p
+What doesn't -&gt; Write o/p
+</t>
       </text>
     </comment>
   </commentList>
@@ -197,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Day - 1 (Basics)</t>
   </si>
@@ -211,6 +364,12 @@
     <t>Day - 4 (Lists)</t>
   </si>
   <si>
+    <t>Day - 5 (Tuples, Sets)</t>
+  </si>
+  <si>
+    <t>Day - 6 (Dict)</t>
+  </si>
+  <si>
     <t>Why Python?</t>
   </si>
   <si>
@@ -223,6 +382,9 @@
     <t>What are Lists?</t>
   </si>
   <si>
+    <t>What are Tuples?</t>
+  </si>
+  <si>
     <t>Python o/p - Print Function/ Error</t>
   </si>
   <si>
@@ -235,6 +397,9 @@
     <t>Lists vs Arrays</t>
   </si>
   <si>
+    <t>Characteristics of Tuple</t>
+  </si>
+  <si>
     <t>Data Types including complex numbers</t>
   </si>
   <si>
@@ -247,6 +412,9 @@
     <t>Address of Arrays/List in Memory</t>
   </si>
   <si>
+    <t>Creating Tuples</t>
+  </si>
+  <si>
     <t>Type function</t>
   </si>
   <si>
@@ -259,6 +427,9 @@
     <t>Characteristics of a list</t>
   </si>
   <si>
+    <t>Accessing items in tuple</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -271,6 +442,9 @@
     <t>Creating a list</t>
   </si>
   <si>
+    <t>Editing/Adding items to Tuple</t>
+  </si>
+  <si>
     <t>Static vs Dynamic Typing</t>
   </si>
   <si>
@@ -283,6 +457,9 @@
     <t>Accessing items in the list/ 2d list</t>
   </si>
   <si>
+    <t>Deleting Tuple</t>
+  </si>
+  <si>
     <t>Static vs Dynamic Binding</t>
   </si>
   <si>
@@ -295,6 +472,9 @@
     <t>Adding items to the list</t>
   </si>
   <si>
+    <t>Operations on the Tuples</t>
+  </si>
+  <si>
     <t>`</t>
   </si>
   <si>
@@ -310,18 +490,21 @@
     <t>Editing items in the list</t>
   </si>
   <si>
+    <t xml:space="preserve">common functions </t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Need for loops in Python</t>
   </si>
   <si>
-    <t xml:space="preserve">common functions </t>
-  </si>
-  <si>
     <t>Deleting items from the list</t>
   </si>
   <si>
+    <t>Tuple functions</t>
+  </si>
+  <si>
     <t>Compiler/Interpretator</t>
   </si>
   <si>
@@ -334,6 +517,9 @@
     <t>Operations on the list</t>
   </si>
   <si>
+    <t>Difference between List/Tuple</t>
+  </si>
+  <si>
     <t>Python Keywords/Identifiers</t>
   </si>
   <si>
@@ -343,6 +529,9 @@
     <t>count/find/index</t>
   </si>
   <si>
+    <t>Tuple Unpacking</t>
+  </si>
+  <si>
     <t>Rules of naming identifiers</t>
   </si>
   <si>
@@ -355,6 +544,9 @@
     <t>List functions</t>
   </si>
   <si>
+    <t>Zip</t>
+  </si>
+  <si>
     <t>User Input</t>
   </si>
   <si>
@@ -367,6 +559,9 @@
     <t>List comprehension</t>
   </si>
   <si>
+    <t>Sets</t>
+  </si>
+  <si>
     <t>Addition of two numbers</t>
   </si>
   <si>
@@ -379,6 +574,9 @@
     <t>Problems</t>
   </si>
   <si>
+    <t>Characteristics of Sets</t>
+  </si>
+  <si>
     <t>Type Conversion - Implicit/ Explicit</t>
   </si>
   <si>
@@ -391,6 +589,9 @@
     <t xml:space="preserve">Print a (3,3) matrix using list comprehension </t>
   </si>
   <si>
+    <t>Creating Sets</t>
+  </si>
+  <si>
     <t>Literal</t>
   </si>
   <si>
@@ -403,6 +604,9 @@
     <t>List comprehension of two lists</t>
   </si>
   <si>
+    <t>Accessing items in Sets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Binary Literal - 0b1001 </t>
   </si>
   <si>
@@ -415,6 +619,9 @@
     <t>Ways to use loops on list</t>
   </si>
   <si>
+    <t>Editing items in Sets</t>
+  </si>
+  <si>
     <t>Decimal Literal</t>
   </si>
   <si>
@@ -427,18 +634,27 @@
     <t>zip</t>
   </si>
   <si>
+    <t>Adding items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Octal Literal - 0o123  </t>
   </si>
   <si>
     <t>Print 1234321 pattern</t>
   </si>
   <si>
+    <t>Deleting items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hexadecimal Literal - 0xABC_DEF </t>
   </si>
   <si>
     <t>loop control statement</t>
   </si>
   <si>
+    <t>Set Operations</t>
+  </si>
+  <si>
     <t>Float literal/exponential literal</t>
   </si>
   <si>
@@ -451,20 +667,38 @@
     <t>pass</t>
   </si>
   <si>
+    <t>Set functions</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
     <t>continue</t>
   </si>
   <si>
+    <t>isthisdisjoint/issubset/issuperset</t>
+  </si>
+  <si>
     <t>Type Casting/Type Conversion</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>Frozenset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozenset functions </t>
+  </si>
+  <si>
+    <t>set comprehension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -482,11 +716,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,30 +725,256 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="Sheet1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -529,6 +984,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F28" displayName="Python_Contents" name="Python_Contents" id="1">
+  <tableColumns count="6">
+    <tableColumn name="Day - 1 (Basics)" id="1"/>
+    <tableColumn name="Day - 2 (Basics)" id="2"/>
+    <tableColumn name="Day - 3 (Strings)" id="3"/>
+    <tableColumn name="Day - 4 (Lists)" id="4"/>
+    <tableColumn name="Day - 5 (Tuples, Sets)" id="5"/>
+    <tableColumn name="Day - 6 (Dict)" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,333 +1200,466 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.38"/>
-    <col customWidth="1" min="2" max="2" width="29.38"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
-    <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="1" max="1" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="37.63"/>
+    <col customWidth="1" min="3" max="3" width="26.88"/>
+    <col customWidth="1" min="4" max="4" width="35.38"/>
+    <col customWidth="1" min="5" max="5" width="27.0"/>
+    <col customWidth="1" min="6" max="6" width="16.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
